--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
@@ -94,13 +94,13 @@
     <t>help</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -1036,25 +1036,25 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7631578947368421</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
         <v>174</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1088,25 +1088,25 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6809815950920245</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1114,25 +1114,25 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1140,25 +1140,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6716417910447762</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="10:17">
